--- a/01. HUB/ecuador_categories.xlsx
+++ b/01. HUB/ecuador_categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\01. HUB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos Barometro Xenofobia/BX-Hub/01. HUB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E762B98-DDC6-4C1B-8265-A78E308D9DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9FFD1C-72D9-364B-80CD-D7AE20B30A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="11720" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -737,9 +737,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -795,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
